--- a/public/data/labour_lists.xlsx
+++ b/public/data/labour_lists.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,45 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nrc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">father_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_of_birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t xml:space="preserve">passport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">passport_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">owic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">owic_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">place_of_passport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remark</t>
   </si>
 </sst>
 </file>
@@ -134,13 +98,9 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -160,53 +120,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
